--- a/UIE-X/entity/ls_long_to_socr_format/scene_folder/model.xlsx
+++ b/UIE-X/entity/ls_long_to_socr_format/scene_folder/model.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>场景</t>
   </si>
@@ -25,13 +25,22 @@
     <t>检测模型</t>
   </si>
   <si>
+    <t>transformer-v2.8-gamma-faster</t>
+  </si>
+  <si>
+    <t>mrcnn-v5.1</t>
+  </si>
+  <si>
+    <t>transformer-blank-v0.2-faster</t>
+  </si>
+  <si>
     <t>服务合同</t>
   </si>
   <si>
-    <t>transformer-v2.8-gamma-faster</t>
-  </si>
-  <si>
-    <t/>
+    <t>transformer-hand-v1.16-faster</t>
+  </si>
+  <si>
+    <t>短文档结构化 #recog拆迁安置协议</t>
   </si>
 </sst>
 </file>
@@ -93,7 +102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -101,17 +110,14 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -421,15 +427,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="30.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="35.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="53.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="30.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="82.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="53.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -443,56 +449,74 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75" customFormat="1" s="3">
-      <c r="A2" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="22.5">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="22.5">
+      <c r="A3" s="1"/>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="22.5">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="39">
-      <c r="A3" s="1"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="39">
-      <c r="A4" s="1"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="22.5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="39">
-      <c r="A6" s="1"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="39">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="22.5">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="22.5">
       <c r="A7" s="1"/>
-      <c r="B7" s="6"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="22.5">
       <c r="A8" s="1"/>
-      <c r="B8" s="6"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="22.5">
-      <c r="A9" s="1"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21.75" customFormat="1" s="3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21.75" customFormat="1" s="5">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1"/>
@@ -549,15 +573,15 @@
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="21.75" customFormat="1" s="3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="21.75" customFormat="1" s="5">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1"/>
@@ -604,15 +628,15 @@
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
-      <c r="A33" s="1"/>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="21.75" customFormat="1" s="5">
+      <c r="A33" s="3"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="21.75" customFormat="1" s="3">
-      <c r="A34" s="4"/>
+      <c r="C33" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+      <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="C34" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="1"/>
@@ -664,11 +688,6 @@
       <c r="B44" s="1"/>
       <c r="C44" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
